--- a/outputEstimativasJogosCopa.xlsx
+++ b/outputEstimativasJogosCopa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,2207 +438,2351 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>hora</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>grupo</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>seleção1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>seleção2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>estádio</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Vitória</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Empate</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Derrota</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>44886</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>07:00:00</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Senegal</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Holanda</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>AL THUMAMA</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>28.3%</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>24.9%</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>46.8%</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
         <v>44886</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>13:00:00</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Catar</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Equador</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>AL KHOR</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>32.3%</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>25.4%</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>42.3%</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
         <v>44890</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Catar</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Senegal</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>AL THUMAMA</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>17.2%</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>22.1%</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>60.6%</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="n">
         <v>44890</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>13:00:00</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Holanda</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Equador</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>INTER. KHALIFA</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>64.4%</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>21.0%</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>14.6%</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="n">
         <v>44894</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>12:00:00</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Holanda</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Catar</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>AL KHOR</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>68.4%</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>19.6%</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>12.0%</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="n">
         <v>44894</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>12:00:00</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Equador</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Senegal</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>INTER. KHALIFA</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>23.3%</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>56.0%</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="n">
         <v>44886</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Inglaterra</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Irã</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>INTER. KHALIFA</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>54.6%</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>23.6%</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>21.8%</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="n">
         <v>44886</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>16:00:00</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Estados Unidos</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>País de Gales</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>AL RAYYAN</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>43.0%</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>25.3%</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>31.7%</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="n">
         <v>44890</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>07:00:00</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>País de Gales</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Irã</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>AL RAYYAN</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>40.1%</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>25.5%</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>34.4%</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="n">
         <v>44890</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>16:00:00</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Inglaterra</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Estados Unidos</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>AL KHOR</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>46.1%</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>25.0%</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>28.9%</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="n">
         <v>44894</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>16:00:00</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>País de Gales</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Inglaterra</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>AL RAYYAN</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>24.0%</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>24.2%</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>51.8%</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="n">
         <v>44894</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>16:00:00</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Irã</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Estados Unidos</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>AL THUMAMA</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>29.1%</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>25.0%</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>45.9%</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="n">
         <v>44887</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>07:00:00</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Argentina</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Arábia Saudita</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>CID. EDUCAÇÃO</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>74.2%</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>17.3%</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>8.5%</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="n">
         <v>44887</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>13:00:00</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>México</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Polônia</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>AL WAKRAH</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>49.1%</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>24.6%</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>26.3%</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="n">
         <v>44891</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Polônia</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Arábia Saudita</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>CID. EDUCAÇÃO</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>57.5%</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>22.9%</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>19.5%</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="n">
         <v>44891</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>16:00:00</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Argentina</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>México</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>NAC. DE LUSAIL</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>47.1%</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>24.9%</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>28.0%</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="n">
         <v>44895</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>16:00:00</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Polônia</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Argentina</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>PORTO DE DOHA</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>18.8%</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>22.7%</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>58.5%</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="n">
         <v>44895</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>16:00:00</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Arábia Saudita</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>México</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>NAC. DE LUSAIL</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>12.5%</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>19.9%</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>67.5%</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="n">
         <v>44887</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Dinamarca</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Tunísia</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>CID. EDUCAÇÃO</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>56.0%</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>23.3%</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>20.7%</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="n">
         <v>44887</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>16:00:00</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>França</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Austrália</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>AL WAKRAH</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>66.6%</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>20.3%</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>13.1%</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="n">
         <v>44891</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>07:00:00</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Tunísia</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Austrália</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>AL WAKRAH</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>41.4%</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>25.4%</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>33.1%</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="n">
         <v>44891</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>13:00:00</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>França</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Dinamarca</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>PORTO DE DOHA</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>45.3%</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>25.1%</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>29.6%</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="n">
         <v>44895</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>12:00:00</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Tunísia</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>França</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>CID. EDUCAÇÃO</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>15.4%</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>21.4%</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>63.2%</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="n">
         <v>44895</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>12:00:00</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>Austrália</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Dinamarca</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>AL WAKRAH</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>17.8%</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>22.3%</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>59.9%</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="n">
         <v>44888</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>Alemanha</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Japão</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>INTER. KHALIFA</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>48.7%</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>24.7%</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>26.6%</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="n">
         <v>44888</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>13:00:00</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Espanha</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Costa Rica</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>AL THUMAMA</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>61.3%</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>22.0%</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>16.8%</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="n">
         <v>44892</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>07:00:00</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>Japão</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Costa Rica</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>AL RAYYAN</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>45.5%</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>25.1%</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>29.4%</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="n">
         <v>44892</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>16:00:00</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Espanha</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Alemanha</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>AL KHOR</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>42.2%</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>25.4%</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>32.4%</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>16:00:00</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>Japão</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Espanha</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>INTER. KHALIFA</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>22.6%</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>23.8%</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>53.6%</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>16:00:00</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Costa Rica</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Alemanha</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>AL KHOR</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>20.1%</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>23.1%</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>56.8%</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="n">
         <v>44888</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>07:00:00</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>Marrocos</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Croácia</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>AL KHOR</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>29.2%</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>25.1%</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>45.7%</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="n">
         <v>44888</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>16:00:00</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>Bélgica</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Canadá</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>AL RAYYAN</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>70.8%</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>18.7%</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>10.5%</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="n">
         <v>44892</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>Bélgica</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Marrocos</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>AL THUMAMA</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>60.1%</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>22.3%</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>17.6%</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="n">
         <v>44892</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>13:00:00</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>Croácia</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Canadá</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>INTE. KHALIFA</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>58.8%</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>22.6%</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>18.6%</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>12:00:00</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>Croácia</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Bélgica</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>AL RAYYAN</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>23.7%</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>24.1%</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>52.2%</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>12:00:00</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>Canadá</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Marrocos</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>AL THUMAMA</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>24.9%</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>24.4%</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>50.7%</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="n">
         <v>44889</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>07:00:00</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>Suíça</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Camarões</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>AL WAKRAH</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>55.8%</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>23.4%</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>20.8%</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="n">
         <v>44889</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>16:00:00</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>Brasil</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Sérvia</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>NAC. LUSAIL</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>61.9%</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>21.8%</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>16.3%</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="n">
         <v>44893</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>07:00:00</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>Camarões</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Sérvia</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>AL WAKRAH</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>27.6%</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>24.8%</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>47.6%</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="n">
         <v>44893</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>13:00:00</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>Brasil</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Suíça</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>PORTO DE DOHA</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>54.2%</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>23.7%</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>22.1%</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="n">
         <v>44897</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>16:00:00</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>Camarões</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Brasil</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>NAC. LUSAIL</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>11.0%</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>19.0%</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>70.0%</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="n">
         <v>44897</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>16:00:00</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>Sérvia</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Suíça</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>PORTO DE DOHA</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>29.3%</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>25.1%</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>45.7%</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="n">
         <v>44889</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>Uruguai</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Coreia do Sul</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>CID. EDUCAÇÃO</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>51.1%</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>24.3%</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>24.6%</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="n">
         <v>44889</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>13:00:00</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Gana</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>PORTO DE DOHA</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>15.6%</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>6.4%</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="n">
         <v>44893</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>10:00:00</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>Coreia do Sul</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Gana</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>CID. EDUCAÇÃO</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>66.9%</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>20.2%</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>12.9%</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="n">
         <v>44893</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>16:00:00</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Uruguai</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>NAC. LUSAIL</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>40.7%</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>25.5%</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>33.8%</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="n">
         <v>44897</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>12:00:00</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>Coreia do Sul</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>CID. EDUCAÇÃO</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>21.8%</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>23.6%</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>54.5%</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="n">
         <v>44897</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>12:00:00</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>Gana</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Uruguai</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>AL WAKRAH</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>7.4%</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>16.5%</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>76.1%</t>
         </is>
